--- a/biology/Botanique/Parc_Sobieski/Parc_Sobieski.xlsx
+++ b/biology/Botanique/Parc_Sobieski/Parc_Sobieski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc Sobieski est un  jardin public situé à Laeken (Bruxelles), le long de l'avenue Jean Sobieski.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au temps de Léopold II, le terrain qui compose aujourd'hui le parc Sobieski, aménagé par Élie Lainé[1], faisait partie intégrante des jardins royaux et servait de verger. Il fut cédé à la ville de Bruxelles par la Donation royale, à condition d'y aménager un parc public. Le parc est aujourd'hui par Bruxelles Environnement dans un souci de préservation de l'environnement et de la bio-diversité.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au temps de Léopold II, le terrain qui compose aujourd'hui le parc Sobieski, aménagé par Élie Lainé, faisait partie intégrante des jardins royaux et servait de verger. Il fut cédé à la ville de Bruxelles par la Donation royale, à condition d'y aménager un parc public. Le parc est aujourd'hui par Bruxelles Environnement dans un souci de préservation de l'environnement et de la bio-diversité.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc forme un carré séparé des deux routes qui le tracent par des massifs boisés. Il présente une importante déclivité.
 On y trouve une pièce d'eau d'une trentaine d'ares, entre autres exploitée par une colonie d’ouettes d’Égypte, une grande prairie plantée de quelques arbres fruitiers, quelques arbres fruitiers palissés et un beau massif de rhododendrons. Le haut du parc offre un joli panorama.
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
